--- a/XYZ Bank/TestCases/C# project TestCase.xlsx
+++ b/XYZ Bank/TestCases/C# project TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauravsk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauravsk\Desktop\C Sharpe\AutomationBankProject\XYZ Bank\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E905DD-378E-47B9-AF86-F1E6CF0BE3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CAB064-1F27-46B9-8588-2EBD0A677286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{005C362B-BF4A-481E-9273-96D415A89CB4}"/>
+    <workbookView xWindow="3660" yWindow="0" windowWidth="15540" windowHeight="10200" xr2:uid="{005C362B-BF4A-481E-9273-96D415A89CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -242,6 +242,29 @@
 2.Verify that User Should able to withdraw amount .Whwn greater than  Account Balnace
 3.Verify Error Message.
 4.Click on Logout</t>
+  </si>
+  <si>
+    <t>SC_XYZ_&amp;</t>
+  </si>
+  <si>
+    <t>TC_XYZ_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to url
+2.click on customer Login
+3.Select New Customer .
+4.click on Login
+5.Display Customer all Account  Details
+</t>
+  </si>
+  <si>
+    <t>Verify that System shall Display Customer all account details</t>
+  </si>
+  <si>
+    <t>System should Display All Account Details Of employeee</t>
+  </si>
+  <si>
+    <t>To Verify New Customer all Account  Details</t>
   </si>
 </sst>
 </file>
@@ -605,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25795906-AE2B-47E6-80FE-A5781E3D31B4}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,6 +826,26 @@
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
